--- a/Document/지형 기믹_강일구.xlsx
+++ b/Document/지형 기믹_강일구.xlsx
@@ -19,7 +19,6 @@
     <sheet name="흐름도 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">작성일자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -135,10 +134,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Move_Speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정수형</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -215,23 +210,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Conveyor_Box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Conveyor_Box 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 생성되는 박스의 수를 결정하는 데이터 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 생성된 박스가 삭제되는 위치 - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Start_Point를 배치 한 후 End_point 오브젝트를 배치한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 한 번의 사이클이 도는 동안 나오는 값들을 조절한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이클 ex)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자 간 간격은 5M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">1. Conveyor_Box 구성 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Conveyor_Box</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. Conveyor_Box 룰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 생성되는 박스의 수를 결정하는 데이터 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 생성된 박스의 이동 속도를 결정하는 데이터 </t>
+    <t xml:space="preserve">3. 외형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 사이클의 마지막 상자가 생성된 후 바로 다시 사이클을 재생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 예외 처리 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5개의 상자가 10의 속도로 이동 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 생성이 시작되는 위치 - start_point</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -239,31 +274,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 생성된 박스가 삭제되는 위치 - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 생성이 시작되는 위치 - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Start_Point를 배치 한 후 End_point 오브젝트를 배치한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Start_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 한 번의 사이클이 도는 동안 나오는 값들을 조절한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 한번의 사이클은 () 값에 의해서 결정된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve"> - 생성된 박스의 이동 속도를 결정하는 데이터 - Box_Speed </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 한번의 사이클은 (Box_Speed, Box_Count) 값에 의해서 결정된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box_Speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box_Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conveyor_Box 개수 조절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시작 위치 지정하는 Start_Point 오브젝트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 종료 위치 지정하는 End_Point 오브젝트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저를 이동 시킬 Box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,14 +354,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -404,7 +443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -426,12 +465,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,6 +487,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,6 +508,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>87126</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="4105275"/>
+          <a:ext cx="4011426" cy="2851919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,16 +883,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
@@ -852,7 +944,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>18</v>
@@ -866,7 +958,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>17</v>
@@ -917,30 +1009,50 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D26" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="8"/>
     </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="C11:H11"/>
@@ -955,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B22"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -966,81 +1078,79 @@
     <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1051,77 +1161,100 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K15"/>
+  <dimension ref="B2:K35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K15" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1129,7 +1262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/Document/지형 기믹_강일구.xlsx
+++ b/Document/지형 기믹_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - </t>
+    <t xml:space="preserve"> - 이동 속도 조절을 위한 데이터 - Box_speed </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -471,6 +471,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,13 +489,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,6 +511,331 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>74237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>46420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971551" y="5646362"/>
+          <a:ext cx="2571750" cy="2696333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2809</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129244</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600451" y="5541587"/>
+          <a:ext cx="1202958" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>End_Point</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>555419</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>159782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="8086725"/>
+          <a:ext cx="1298369" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>Start_Point</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -930,14 +1255,14 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
@@ -946,28 +1271,28 @@
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="5"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -1014,10 +1339,10 @@
       <c r="C25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -1046,8 +1371,8 @@
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="15"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1067,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H22"/>
+  <dimension ref="B2:B25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1078,84 +1403,93 @@
     <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>68</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>70</v>
       </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1163,7 +1497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>

--- a/Document/지형 기믹_강일구.xlsx
+++ b/Document/지형 기믹_강일구.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">작성일자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -311,6 +311,10 @@
   </si>
   <si>
     <t xml:space="preserve"> - 이동 속도 조절을 위한 데이터 - Box_speed </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 끝점에서 다시 돌아오는 시간 조절을 위한 데이터 - Box_endspeed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1394,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1431,6 +1435,11 @@
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">

--- a/Document/지형 기믹_강일구.xlsx
+++ b/Document/지형 기믹_강일구.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
     <sheet name="시스템 개요" sheetId="2" r:id="rId2"/>
     <sheet name="Move_Box" sheetId="5" r:id="rId3"/>
     <sheet name="Conveyor_Box" sheetId="6" r:id="rId4"/>
-    <sheet name="흐름도 " sheetId="3" r:id="rId5"/>
+    <sheet name="Rotation_box" sheetId="7" r:id="rId5"/>
+    <sheet name="흐름도 " sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t xml:space="preserve">작성일자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -315,6 +316,54 @@
   </si>
   <si>
     <t xml:space="preserve"> - 끝점에서 다시 돌아오는 시간 조절을 위한 데이터 - Box_endspeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 시스템 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회전 속도 조절을 위한 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회전 중심을 조절할 기준 점 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회전의 중심이 되는 축 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 시스템 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 오브젝트가 지속해서 회전한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 오브젝트의 형태는 각 오브젝트마다 다르다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.04.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강일구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation_box 내용 추가 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2ver</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,6 +517,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1153,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1193,10 +1245,18 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -1259,14 +1319,14 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1275,28 +1335,28 @@
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="5"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -1343,10 +1403,10 @@
       <c r="C25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -1355,10 +1415,10 @@
       <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
@@ -1367,16 +1427,16 @@
       <c r="C27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1398,7 +1458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1603,6 +1663,63 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Document/지형 기믹_강일구.xlsx
+++ b/Document/지형 기믹_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t xml:space="preserve">작성일자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -307,10 +307,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 유저를 이동 시킬 Box</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 이동 속도 조절을 위한 데이터 - Box_speed </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -364,6 +360,26 @@
   </si>
   <si>
     <t>0.2ver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 거쳐 가는 점을 조절하기 위한 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저를 이동 시킬 Box모델</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 중간의 이동을 위한 노드를 제작하여 거쳐 갈 수 있는 지점을 제작한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 거쳐가는 동안에 장애물이 없어야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 설치 조건 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -572,13 +588,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>74237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>46420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -616,13 +632,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>179012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2809</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>129244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -754,13 +770,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>555419</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>159782</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1205,7 +1221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1246,16 +1262,16 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -1456,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B25"/>
+  <dimension ref="B2:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1467,57 +1483,68 @@
     <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="N13" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -1550,15 +1577,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1673,42 +1706,42 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Document/지형 기믹_강일구.xlsx
+++ b/Document/지형 기믹_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="Move_Box" sheetId="5" r:id="rId3"/>
     <sheet name="Conveyor_Box" sheetId="6" r:id="rId4"/>
     <sheet name="Rotation_box" sheetId="7" r:id="rId5"/>
-    <sheet name="흐름도 " sheetId="3" r:id="rId6"/>
+    <sheet name="time_Box" sheetId="8" r:id="rId6"/>
+    <sheet name="흐름도 " sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t xml:space="preserve">작성일자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -380,6 +381,42 @@
   </si>
   <si>
     <t xml:space="preserve">2.1 설치 조건 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 시스템 개요 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 일정 시간이 지나면 삭제 되는 박스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 발판을 통한 다양한 기믹 기획을 위한 박스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 시스템 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +460,15 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -512,7 +558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -540,6 +586,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,6 +612,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1335,14 +1387,14 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1351,28 +1403,28 @@
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="5"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -1419,10 +1471,10 @@
       <c r="C25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -1431,10 +1483,10 @@
       <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
@@ -1443,16 +1495,16 @@
       <c r="C27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1474,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1753,6 +1805,94 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Document/지형 기믹_강일구.xlsx
+++ b/Document/지형 기믹_강일구.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t xml:space="preserve">작성일자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -417,6 +417,82 @@
   </si>
   <si>
     <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스가 이동하는 속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0일 경우 제자리에서 움직이지 않음 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">박스가 재 생성 되는 시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스가 제거 되는 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재거 후 부터 생성까지 걸리는 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이동하는 형태의 박스와 고정된 위치에 배치되어 있는 두가지 형태의 박스로 개발한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_speed가 1이상인 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이동 하는 도중 유저가 박스위에 올라탈 시 Remove_time 값에 따라 제거 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cool_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 제거 후 Cool_time 값 이후 박스가 시작 위치에 재 생성 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_speed가 0이하인 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 박스는 Move_speed의 값에 따라 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 박스는 이동하지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저가 박스위에 올라탈 시 Remove_time 값에 따라 제거 된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,6 +668,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,9 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1387,14 +1469,14 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1403,28 +1485,28 @@
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="5"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -1471,10 +1553,10 @@
       <c r="C25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -1483,10 +1565,10 @@
       <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
@@ -1495,16 +1577,16 @@
       <c r="C27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1526,7 +1608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -1651,7 +1733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -1751,7 +1833,7 @@
   <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1805,16 +1887,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1838,15 +1924,16 @@
         <v>92</v>
       </c>
     </row>
+    <row r="10" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="9" t="s">
         <v>94</v>
       </c>
@@ -1855,28 +1942,95 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="B12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="B14" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Document/지형 기믹_강일구.xlsx
+++ b/Document/지형 기믹_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t xml:space="preserve">작성일자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -493,6 +493,18 @@
   </si>
   <si>
     <t xml:space="preserve"> - 유저가 박스위에 올라탈 시 Remove_time 값에 따라 제거 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.04.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강일구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time_Box</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1355,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1409,9 +1421,15 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
   </sheetData>
@@ -1889,7 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>

--- a/Document/지형 기믹_강일구.xlsx
+++ b/Document/지형 기믹_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
@@ -460,51 +460,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> - 이동 하는 도중 유저가 박스위에 올라탈 시 Remove_time 값에 따라 제거 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cool_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 제거 후 Cool_time 값 이후 박스가 시작 위치에 재 생성 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_speed가 0이하인 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 박스는 Move_speed의 값에 따라 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 박스는 이동하지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저가 박스위에 올라탈 시 Remove_time 값에 따라 제거 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.04.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강일구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time_Box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Move_speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 이동 하는 도중 유저가 박스위에 올라탈 시 Remove_time 값에 따라 제거 된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cool_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 제거 후 Cool_time 값 이후 박스가 시작 위치에 재 생성 된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move_speed가 0이하인 경우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 박스는 Move_speed의 값에 따라 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 박스는 이동하지 않는다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 유저가 박스위에 올라탈 시 Remove_time 값에 따라 제거 된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.04.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강일구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time_Box</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1367,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1443,7 +1443,7 @@
   <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1627,7 +1627,7 @@
   <dimension ref="B2:N28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1751,7 +1751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -1908,7 +1908,7 @@
   <dimension ref="B2:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>97</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>103</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>102</v>
@@ -2017,37 +2017,37 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
